--- a/template.xlsx
+++ b/template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Playground\OM-generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCCE4B24-D962-49D3-A312-A01A6D4BBADD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42181145-7F87-49C4-BF23-D1D06922E0B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-2595" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A6284BC5-6B1C-4AAC-A778-7781014D47CB}"/>
+    <workbookView xWindow="-28920" yWindow="-2595" windowWidth="29040" windowHeight="15840" xr2:uid="{A6284BC5-6B1C-4AAC-A778-7781014D47CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Dati Input" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
   <si>
     <t>ESEMPIO id rif.</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>Descrizione Elaborazione</t>
+  </si>
+  <si>
+    <t>Caso Test</t>
   </si>
 </sst>
 </file>
@@ -487,10 +490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE574F61-8D22-4F7C-8066-8994DEC90BEE}">
-  <dimension ref="A2:J4"/>
+  <dimension ref="A2:K4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -507,7 +510,7 @@
     <col min="10" max="10" width="17.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -538,8 +541,11 @@
       <c r="J2" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="K2" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -556,8 +562,9 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
@@ -570,6 +577,7 @@
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -579,10 +587,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7043AEE0-0583-4631-9900-7179DD94C0E7}">
-  <dimension ref="A2:J4"/>
+  <dimension ref="A2:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -597,9 +605,10 @@
     <col min="8" max="8" width="22.88671875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.77734375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -630,8 +639,11 @@
       <c r="J2" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="K2" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -648,8 +660,9 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -662,6 +675,7 @@
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
